--- a/Code/ICILS/icils data/icils2018_teaching practice.xlsx
+++ b/Code/ICILS/icils data/icils2018_teaching practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\InternationalAssessment_DataViz\Code\ICILS\icils data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3B821-57B5-44A3-974D-A64008D94C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145403D2-346F-4804-9FA3-B25B5AE0CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A07A7695-E847-49EF-A53B-315A517D7251}"/>
+    <workbookView xWindow="8910" yWindow="1220" windowWidth="14400" windowHeight="7360" xr2:uid="{A07A7695-E847-49EF-A53B-315A517D7251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,42 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Present information through class instruction </t>
-  </si>
-  <si>
-    <r>
-      <t>Communicate with parents about students</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> learning</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Provide remedial or enrichment support to students </t>
   </si>
   <si>
-    <t xml:space="preserve">Reinforce the learning of skills through repetition </t>
-  </si>
-  <si>
     <t>Support student-led discussions</t>
   </si>
   <si>
@@ -86,9 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">Support collaboration among students </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediate communication between students and experts </t>
   </si>
   <si>
     <t>ELA_value</t>
@@ -164,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +176,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="MS Mincho"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -308,7 +267,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F674F0-AF22-4B2B-8EFE-B0672D19D400}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,25 +597,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -664,22 +623,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D2" s="5">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="F2" s="5">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G2" s="6">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -687,22 +646,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D3" s="5">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -710,22 +669,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D4" s="5">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="F4" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="6">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -733,19 +692,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="F5" s="5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6">
         <v>3.6</v>
@@ -756,22 +715,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D6" s="5">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="F6" s="5">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G6" s="6">
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -779,114 +738,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D7" s="5">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="F7" s="5">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>47</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="F8" s="5">
-        <v>53</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="F9" s="5">
-        <v>28</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="D10" s="5">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="F10" s="5">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -907,17 +774,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
